--- a/outputs/0816var1_1.xlsx
+++ b/outputs/0816var1_1.xlsx
@@ -10,14 +10,14 @@
     <sheet name="rda_table" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rda_table!$A$1:$E$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rda_table!$A$1:$E$36</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="108">
   <si>
     <t>NAME</t>
   </si>
@@ -154,6 +154,24 @@
     <t>Destroy 20 years after the client has reached 18 years of age or the date of completion of sentence (whichever is longer).</t>
   </si>
   <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>Records created when clients are released from custody, including: •   the return of belongings lodged upon admission; •   arrangements for the collection of the client from the centre; •   provision of a copy of Youth Parole/Residential Board papers to the client; Parole/Residential Board papers against the client summary record or copy of order granting remissions.</t>
+  </si>
+  <si>
+    <t>Destroy 17 years after the client has reached 18 years of age or the date of completion of sentence (whichever is longer).</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>Temporary programs (e.g. Technical and Further Education (TAFE) programs); Men's Christian Association (YMCA) programs); Mental health services; the problem behaviour e.g. violence, sexual offences, persistent offending etc.); Work experience programs; Justice. [For records of clients who have died in custody, use class 3.7.0]</t>
+  </si>
+  <si>
+    <t>Destroy 75 years after the client has reached 18 years of age or the date of completion of sentence (whichever is longer).</t>
+  </si>
+  <si>
     <t>3.3.2</t>
   </si>
   <si>
@@ -221,6 +239,24 @@
   </si>
   <si>
     <t>Destroy 2 years after the application is withdrawn.</t>
+  </si>
+  <si>
+    <t>4.2.1</t>
+  </si>
+  <si>
+    <t>Submissions of breach reports to Court, or the Youth Residential or Youth Parole Boards, regarding a breach of the conditions of a custodial, community supervision or parole order by a client. Includes breaches of probation, youth supervision orders, youth attendance orders and parole conditions. [For records of incidents that have led to the issue of breach reports see class 4.3.0 Incident Reporting] [For records of clients who have died in custody, use class 3.7.0]</t>
+  </si>
+  <si>
+    <t>Destroy 75 years after the client has reached 18 years of age or the date of completion of sentence/court order (whichever is longer).</t>
+  </si>
+  <si>
+    <t>4.2.2</t>
+  </si>
+  <si>
+    <t>Records of the issue of a verbal warning by the Unit or Centre Manager (custodial) case manager (community service). attend a counselling session or supervisions session (first instance, for repeats see 4.2.1 above);</t>
+  </si>
+  <si>
+    <t>Destroy 2 years after the completion of the order.</t>
   </si>
   <si>
     <t>4.4.3</t>
@@ -649,7 +685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -662,7 +698,7 @@
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="958.85546875" customWidth="1"/>
-    <col min="5" max="5" width="138.28515625" customWidth="1"/>
+    <col min="5" max="5" width="148.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
@@ -1002,7 +1038,7 @@
         <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1013,13 +1049,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1030,13 +1066,13 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1104,7 +1140,7 @@
         <v>78</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1115,13 +1151,13 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1132,13 +1168,13 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1149,13 +1185,13 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1166,13 +1202,13 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1183,13 +1219,13 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1200,17 +1236,85 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>95</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E32"/>
+  <autoFilter ref="A1:E36"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>